--- a/Components_V4.xlsx
+++ b/Components_V4.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="442">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,24 @@
     <t>toolTip</t>
   </si>
   <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>Starting Year</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Business Plan</t>
+  </si>
+  <si>
+    <t>Year of planned spat procurement</t>
+  </si>
+  <si>
+    <t>First proposed year of spat procurement</t>
+  </si>
+  <si>
     <t>pa</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
     <t>cat</t>
   </si>
   <si>
-    <t>Business Plan</t>
-  </si>
-  <si>
     <t>Standard Lease</t>
   </si>
   <si>
@@ -122,13 +137,13 @@
     <t>slider</t>
   </si>
   <si>
-    <t>Long Line</t>
+    <t>Lease Setup</t>
   </si>
   <si>
     <t>Number of Longlines</t>
   </si>
   <si>
-    <t>Number of longlines on lease space, each longline requires 2 anchors, buoys, etc.  However, more longlines increases redundancy in the system</t>
+    <t xml:space="preserve">Number of longlines on lease space, each longline requires 2 anchors, buoys, etc. </t>
   </si>
   <si>
     <t>pc</t>
@@ -137,13 +152,10 @@
     <t>Longline Depth</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>Lease site depth at low tide</t>
   </si>
   <si>
-    <t>Depth at the lease site for anchoring longlines, will also affect dropper line length (ear hanging)</t>
+    <t>Depth at the lease site for anchoring longlines at low tide.</t>
   </si>
   <si>
     <t>pd</t>
@@ -168,19 +180,64 @@
     <t>Projected Spat</t>
   </si>
   <si>
-    <t>Projected spat collected, this number is going to vary in reality byt its just a limitaiton of the model</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>Starting Year</t>
-  </si>
-  <si>
-    <t>Other Details</t>
-  </si>
-  <si>
-    <t>Self Explanatory, first your of spat procurement</t>
+    <t>Projected spat collected or bought</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>Owner Salary</t>
+  </si>
+  <si>
+    <t>Employee, Insurance, and Consumables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projected annual owner salary </t>
+  </si>
+  <si>
+    <t>Projected annual owner salary</t>
+  </si>
+  <si>
+    <t>pj</t>
+  </si>
+  <si>
+    <t>Full Time Employee</t>
+  </si>
+  <si>
+    <t>Number of salaried employees</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>Employee Salary</t>
+  </si>
+  <si>
+    <t>Projected annual employee salary</t>
+  </si>
+  <si>
+    <t>Annual employee wage per salaried employee</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>Part Time Wage</t>
+  </si>
+  <si>
+    <t>Part time hourly wage</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Annual Insurance Costs (Combined)</t>
+  </si>
+  <si>
+    <t>All insurance costs for vessel, truck, employees farm, etc</t>
   </si>
   <si>
     <t>pg</t>
@@ -193,70 +250,7 @@
 Ex: gloves, knifes, coffee, rain gear</t>
   </si>
   <si>
-    <t>This is a catch all for the odds and ends you will expect to purchase during the year.  Kind of a catch all</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>Owner Salary</t>
-  </si>
-  <si>
-    <t>Wages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projected annual owner salary </t>
-  </si>
-  <si>
-    <t>Struan tells me this is important to put into the model</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Annual Insurance Costs (Combined)</t>
-  </si>
-  <si>
-    <t>All insurance costs for vessel, truck, employees farm, etc</t>
-  </si>
-  <si>
-    <t>pj</t>
-  </si>
-  <si>
-    <t>Full Time Employee</t>
-  </si>
-  <si>
-    <t>Number of salaried employees</t>
-  </si>
-  <si>
-    <t>Salaried employees are paid an annual salary and are a fixed operating cost whereas part time employees are a variable cost of labor</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>Employee Salary</t>
-  </si>
-  <si>
-    <t>Projected annual employee salary</t>
-  </si>
-  <si>
-    <t>Annual employee wage per employee</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>Part Time Wage</t>
-  </si>
-  <si>
-    <t>Part time hourly wage</t>
-  </si>
-  <si>
-    <t>Minimum is based on federal minimum wage</t>
+    <t>Miscellaneous annual gear purchases</t>
   </si>
   <si>
     <t>pm</t>
@@ -278,7 +272,7 @@
     <t>Fall,Winter,Spring,Summer</t>
   </si>
   <si>
-    <t>Quarterly harvest period where work would theoretically start. Allows for the model to assess harvest against labor saving benefits</t>
+    <t>Harvest quarter</t>
   </si>
   <si>
     <t>pn</t>
@@ -320,7 +314,7 @@
     <t>Wild Spat - Collected,Wild Spat - Purchased</t>
   </si>
   <si>
-    <t>Two current methods of scallop seed (ie spat) To collect, growers place spat collectors in Y0 Fall and collect in Y0 Spring.  Requires labor and time. The other option is purchase from a third party, more expensive/scallop as scale increases.  Grower would start lease work in Y0 spring with stocking lantern nets with spat at 150-250/tier</t>
+    <t>Select method of spat procurement</t>
   </si>
   <si>
     <t>pp</t>
@@ -336,7 +330,7 @@
 Intermediate - Lantern Net</t>
   </si>
   <si>
-    <t>Currently the model only supports  lantern net culture the other option is pearl nets.  In this stage growers  restock seed in Fall to 25-35/tier</t>
+    <t>Select method of intermediate culture</t>
   </si>
   <si>
     <t>pq</t>
@@ -356,9 +350,6 @@
     <t>Ear Hanging,Lantern Net</t>
   </si>
   <si>
-    <t>Grow out is the final and potentially longest phase. For lantern net growers would restock to ~10 per tier but in the second year of grow out (3-4 years) they would not need to restock.  Ear hanging requires pinning initially but then only requires cleaning after</t>
-  </si>
-  <si>
     <t>xtr</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>Predicted number of scallop spat/collector</t>
   </si>
   <si>
-    <t>This will be set to ~2000, Japan reports spat density as high as 1 million/collector</t>
-  </si>
-  <si>
     <t>unlimited</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>Depth of spat collector placement</t>
   </si>
   <si>
-    <t>Spat are hung on a line in the water column with an anchor and buoy</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -404,7 +389,7 @@
     <t>Stocking density of 0-1 year old scallops</t>
   </si>
   <si>
-    <t>Lantern net stocking density per tier. Scallop growth is highly dependent on density, it is a trade off between growth and labor/equipment costs for lantern nets. (they are ~10-20 mm here)</t>
+    <t>Stocking density of 0-1 year old scallops&lt;br&gt;Note that at densities exceeding 250 scallops/tier could result in reduced growth</t>
   </si>
   <si>
     <t>sd</t>
@@ -416,7 +401,7 @@
     <t>Stocking density of 1-2 year old scallops</t>
   </si>
   <si>
-    <t>Y1 stocking density requires heavy thinning and growth will be affected above 25/tier but the goal is to get all scallops to 45-55mm before the next year</t>
+    <t>Stocking density of 1-2 year old scallops&lt;br&gt;Note that at densities exceeding 25 scallops/tier could result in reduced growth</t>
   </si>
   <si>
     <t>se</t>
@@ -428,7 +413,7 @@
     <t>Stocking density of 2-3 year old scallops</t>
   </si>
   <si>
-    <t>Y2 Stocking density requires final thinning to grow out density.  Note that ear hanging ignores this metric</t>
+    <t>Stocking density of 2-3 year old scallops&lt;br&gt;Note that at densities exceeding 10 scallops/tier could result in reduced growth resulting in a smaller product than preset growth data predicts</t>
   </si>
   <si>
     <t>sf</t>
@@ -440,7 +425,7 @@
     <t>Stocking density of 3-4 year old scallops</t>
   </si>
   <si>
-    <t>I included this in case growers want to consider a final thinning for lantern net calculations</t>
+    <t>Stocking density of 3-4 year old scallops&lt;br&gt;Note that at densities exceeding 10 scallops/tier could result in reduced growth resulting in a smaller product than preset growth data predicts</t>
   </si>
   <si>
     <t>sg</t>
@@ -455,9 +440,6 @@
     <t>Annual Mortality of 0-1 year old seed scallops</t>
   </si>
   <si>
-    <t>Annual mortality of seed, constant here but seed will likely have higher mortality</t>
-  </si>
-  <si>
     <t>0 to 1.0</t>
   </si>
   <si>
@@ -470,9 +452,6 @@
     <t>Annual Mortality of 1-2 year old scallops</t>
   </si>
   <si>
-    <t>Annual Y1 mortality</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -482,9 +461,6 @@
     <t>Annual Mortality of 2-3 year old scallops</t>
   </si>
   <si>
-    <t>Annual Y2 Mortality, note this is really just general loss, not specifically death</t>
-  </si>
-  <si>
     <t>sj</t>
   </si>
   <si>
@@ -494,9 +470,6 @@
     <t>Annual Mortality of 3-4 year old scallops</t>
   </si>
   <si>
-    <t>Annual Y3 Mortality</t>
-  </si>
-  <si>
     <t>Y1 Product</t>
   </si>
   <si>
@@ -542,9 +515,6 @@
     <t>Cost per Scallop seed (divide if necessary)</t>
   </si>
   <si>
-    <t>How much scallop seed costs.  Often sold in batches of price/1000 scallops but that varies so growers will just have to divide</t>
-  </si>
-  <si>
     <t>0-$1.00</t>
   </si>
   <si>
@@ -557,7 +527,7 @@
     <t>Scope in relation to longline depth</t>
   </si>
   <si>
-    <t>This is the mooring length as a function of longline suspended depth.  Literature recommends a mooring length of 3-4 times the depth.</t>
+    <t>Mooring scope in relation to longline depth</t>
   </si>
   <si>
     <t>sq</t>
@@ -569,9 +539,6 @@
     <t>Spacing of major surface floats (Feet)</t>
   </si>
   <si>
-    <t>space between surface buoys attached to longline meant for general visibility</t>
-  </si>
-  <si>
     <t>ulimited</t>
   </si>
   <si>
@@ -584,9 +551,6 @@
     <t>Space between longlines and lease edge (Feet)</t>
   </si>
   <si>
-    <t>Margin between longline and lease boundary which will afect total lease area</t>
-  </si>
-  <si>
     <t>ss</t>
   </si>
   <si>
@@ -596,9 +560,6 @@
     <t>Annual Shellfish Aquaculture License Fee</t>
   </si>
   <si>
-    <t>All growers require an annual shellfish license that is a fixed operating cost</t>
-  </si>
-  <si>
     <t>Unlimited</t>
   </si>
   <si>
@@ -611,9 +572,6 @@
     <t>Spat collectors per anchored line</t>
   </si>
   <si>
-    <t>Each anchor line for spat collection has several collectors attached</t>
-  </si>
-  <si>
     <t>su</t>
   </si>
   <si>
@@ -623,7 +581,7 @@
     <t>Average length of gangions</t>
   </si>
   <si>
-    <t>Gangions or rope lengths used to attach gear such as lantern nets and sub surface buoys to longline</t>
+    <t>Average length of gangions for gear attachment along longline</t>
   </si>
   <si>
     <t>unlimtied</t>
@@ -641,9 +599,6 @@
     <t>Number of compartments in each lantern net</t>
   </si>
   <si>
-    <t>Standard is 7 or 10 but there can be 20 or more</t>
-  </si>
-  <si>
     <t>sw</t>
   </si>
   <si>
@@ -653,9 +608,6 @@
     <t>Number of lantern nets per hardball</t>
   </si>
   <si>
-    <t xml:space="preserve">hard balls or compression resistant buoys used below the surface to keep gear off the bottom.  </t>
-  </si>
-  <si>
     <t>sx</t>
   </si>
   <si>
@@ -665,9 +617,6 @@
     <t>Number of lantern nets per anchor</t>
   </si>
   <si>
-    <t>Anchors are placed along longline to keep drift from current to a minimum.</t>
-  </si>
-  <si>
     <t>sy</t>
   </si>
   <si>
@@ -677,9 +626,6 @@
     <t>Spacing between lantern nets</t>
   </si>
   <si>
-    <t>Will affect total longline length</t>
-  </si>
-  <si>
     <t>sz</t>
   </si>
   <si>
@@ -692,9 +638,6 @@
     <t>Number of dropper lines per hard ball</t>
   </si>
   <si>
-    <t>Similar to lantern nets but less for dropper lines due to lower surface area</t>
-  </si>
-  <si>
     <t>saa</t>
   </si>
   <si>
@@ -704,24 +647,15 @@
     <t>Number of dropper lines per anchor</t>
   </si>
   <si>
-    <t>Same but for anchors</t>
-  </si>
-  <si>
     <t>sab</t>
   </si>
   <si>
     <t>Dropper Line Spacing</t>
   </si>
   <si>
-    <t>Dropper Parameters</t>
-  </si>
-  <si>
     <t>Spacing between dropper lines</t>
   </si>
   <si>
-    <t>spacing between dropper lines</t>
-  </si>
-  <si>
     <t>sac</t>
   </si>
   <si>
@@ -731,9 +665,6 @@
     <t>Number of (paired) scallops on each dropper line</t>
   </si>
   <si>
-    <t>Total scallops on each dropper line scallops are hung in pairs</t>
-  </si>
-  <si>
     <t>sad</t>
   </si>
   <si>
@@ -743,9 +674,6 @@
     <t>Spacing between scallops on dropper line</t>
   </si>
   <si>
-    <t>Spacing between each scallop couplet</t>
-  </si>
-  <si>
     <t>sae</t>
   </si>
   <si>
@@ -755,7 +683,7 @@
     <t>Margin of rope without scallops</t>
   </si>
   <si>
-    <t>Margin on either end, growers want a margin near the top to avoid scallops  being out of the water when working  the line</t>
+    <t>Margin of dropper line without scallops</t>
   </si>
   <si>
     <t>Ear Hanging Droppers</t>
@@ -767,11 +695,6 @@
     <t>Calculated total dropper lines</t>
   </si>
   <si>
-    <t>Calculates total dropper lines for each 
-year, if more than 1 year grow out
-just doubles number</t>
-  </si>
-  <si>
     <t>Do not touch</t>
   </si>
   <si>
@@ -784,7 +707,7 @@
     <t>Total dropper line length</t>
   </si>
   <si>
-    <t>For cost of dropper line per foot metric</t>
+    <t>Total dropper line length (Feet)</t>
   </si>
   <si>
     <t>saf</t>
@@ -796,12 +719,21 @@
     <t>Daily work hours</t>
   </si>
   <si>
-    <t>Daily work paid for part time help</t>
-  </si>
-  <si>
     <t>0-24</t>
   </si>
   <si>
+    <t>sag</t>
+  </si>
+  <si>
+    <t>Longline Anchor Buffer</t>
+  </si>
+  <si>
+    <t>Buffer space on longline between anchors and dropper lines to avoid entanglement between dropper line and anchor</t>
+  </si>
+  <si>
+    <t>Buffer space between ear hungdropper lines and cement anchors</t>
+  </si>
+  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -823,8 +755,7 @@
     <t>Vessel</t>
   </si>
   <si>
-    <t>Vessel for longline work, includes all 
-modifications in cost.</t>
+    <t>Vessel for longline work, includes all modifications in cost.</t>
   </si>
   <si>
     <t>Truck</t>
@@ -836,15 +767,13 @@
     <t>Miscellaneous Equipment</t>
   </si>
   <si>
-    <t>A general column for equipment not 
-considered in the model.</t>
+    <t>A general column for equipment not  considered in the model.</t>
   </si>
   <si>
     <t>Rope (1 inch)</t>
   </si>
   <si>
-    <t>Heavy rope, used for longline setup and
-long term installations</t>
+    <t>Heavy rope, used for longline setup and long term installations</t>
   </si>
   <si>
     <t>https://shop.hamiltonmarine.com/products/rope-tow-line-oletec-12-strand-co-polymer-orange--foot-reel--58549.html</t>
@@ -1167,7 +1096,7 @@
     <t>Global</t>
   </si>
   <si>
-    <t>as.numeric((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),9]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),9])/`Dropper Length` * `Dropper Line Spacing`))</t>
+    <t>as.numeric((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),9]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),9])/`Dropper Length` * `Dropper Line Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Anchor (Cement Bucket)' &amp; Equipment.Subset$Type == 'Ear Hanging'),9])*`Longline Anchor Buffer`))</t>
   </si>
   <si>
     <t>`Longline Quantity` * 2</t>
@@ -1339,6 +1268,9 @@
   </si>
   <si>
     <t>Harvest</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>Harvest, similar time frame for whole scallops
@@ -1632,23 +1564,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1958,84 +1898,83 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1">
+        <v>2000.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="2">
-        <v>60.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="2">
-        <v>100000.0</v>
+        <v>20.0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2047,13 +1986,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="2">
-        <v>15.0</v>
+        <v>60.0</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
@@ -2065,7 +2004,7 @@
         <v>100000.0</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2077,22 +2016,22 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="2">
-        <v>100000.0</v>
+        <v>15.0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.0E8</v>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100000.0</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -2107,21 +2046,25 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2">
-        <v>2023.0</v>
-      </c>
       <c r="G7" s="1">
-        <v>2000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="H7" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="J7" s="2" t="s">
+        <v>1.0E8</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2133,316 +2076,316 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="2">
-        <v>1000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>200000.0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
+      <c r="J8" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="2">
-        <v>35000.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.0</v>
       </c>
-      <c r="H9" s="1">
-        <v>200000.0</v>
+      <c r="H9" s="2">
+        <v>20.0</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>35000.0</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="2">
         <v>0.0</v>
       </c>
       <c r="H10" s="2">
-        <v>1000000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>53</v>
+      <c r="J10" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" s="2">
-        <v>0.0</v>
+        <v>7.25</v>
       </c>
       <c r="H11" s="2">
-        <v>20.0</v>
+        <v>75.0</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2">
-        <v>35000.0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>0.0</v>
       </c>
       <c r="H12" s="2">
-        <v>200000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>200000.0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="2">
-        <v>7.25</v>
-      </c>
-      <c r="H13" s="2">
-        <v>75.0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
+      <c r="I14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="3" t="s">
-        <v>76</v>
+      <c r="I15" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>83</v>
+      <c r="I16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="3" t="s">
-        <v>93</v>
+      <c r="I18" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3454,268 +3397,268 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4724,13 +4667,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -4738,110 +4681,110 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5887,27 +5830,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>4000.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
         <v>0.0</v>
@@ -5916,30 +5859,30 @@
         <v>100000.0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>100.0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
         <v>0.0</v>
@@ -5948,30 +5891,30 @@
         <v>1000.0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>250.0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2">
         <v>0.0</v>
@@ -5979,31 +5922,31 @@
       <c r="H4" s="2">
         <v>5000.0</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>110</v>
+      <c r="J4" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2">
         <v>25.0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1">
         <v>0.0</v>
@@ -6011,31 +5954,31 @@
       <c r="H5" s="1">
         <v>100.0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>114</v>
+      <c r="J5" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2">
         <v>10.0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1">
         <v>0.0</v>
@@ -6044,30 +5987,30 @@
         <v>50.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2">
         <v>10.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1">
         <v>0.0</v>
@@ -6076,30 +6019,30 @@
         <v>50.0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2">
         <v>0.125</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1">
         <v>0.0</v>
@@ -6108,30 +6051,30 @@
         <v>1.0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2">
         <v>0.125</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1">
         <v>0.0</v>
@@ -6140,30 +6083,30 @@
         <v>1.0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
         <v>0.125</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1">
         <v>0.0</v>
@@ -6172,30 +6115,30 @@
         <v>1.0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2">
         <v>0.125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1">
         <v>0.0</v>
@@ -6204,101 +6147,101 @@
         <v>1.0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E16" s="2">
         <v>0.01</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G16" s="2">
         <v>0.0</v>
@@ -6306,31 +6249,31 @@
       <c r="H16" s="2">
         <v>1.0</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>156</v>
+      <c r="J16" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E17" s="2">
         <v>4.0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G17" s="2">
         <v>0.0</v>
@@ -6338,31 +6281,31 @@
       <c r="H17" s="2">
         <v>10.0</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="J17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="7">
         <v>44934.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2">
         <v>100.0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G18" s="2">
         <v>0.0</v>
@@ -6371,30 +6314,30 @@
         <v>1000.0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2">
         <v>120.0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1">
         <v>0.0</v>
@@ -6403,30 +6346,30 @@
         <v>1000.0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2">
         <v>1200.0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1">
         <v>0.0</v>
@@ -6435,30 +6378,30 @@
         <v>50000.0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2">
         <v>10.0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G21" s="1">
         <v>0.0</v>
@@ -6467,30 +6410,30 @@
         <v>100.0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2">
         <v>4.0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G22" s="1">
         <v>0.0</v>
@@ -6498,31 +6441,31 @@
       <c r="H22" s="1">
         <v>1000.0</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>183</v>
+      <c r="J22" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2">
         <v>10.0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G23" s="1">
         <v>1.0</v>
@@ -6531,30 +6474,30 @@
         <v>30.0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="5">
+        <v>174</v>
+      </c>
+      <c r="K23" s="7">
         <v>44951.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2">
         <v>10.0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G24" s="1">
         <v>1.0</v>
@@ -6563,30 +6506,30 @@
         <v>100.0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2">
         <v>25.0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1">
         <v>1.0</v>
@@ -6595,30 +6538,30 @@
         <v>400.0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E26" s="2">
         <v>3.0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G26" s="1">
         <v>1.0</v>
@@ -6627,30 +6570,30 @@
         <v>100.0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E27" s="2">
         <v>40.0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G27" s="1">
         <v>1.0</v>
@@ -6659,30 +6602,30 @@
         <v>100.0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E28" s="2">
         <v>100.0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G28" s="1">
         <v>1.0</v>
@@ -6691,30 +6634,30 @@
         <v>1000.0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E29" s="2">
         <v>1.0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G29" s="1">
         <v>0.0</v>
@@ -6723,30 +6666,30 @@
         <v>100.0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E30" s="2">
         <v>140.0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G30" s="1">
         <v>10.0</v>
@@ -6755,30 +6698,30 @@
         <v>5000.0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E31" s="2">
         <v>0.5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G31" s="1">
         <v>0.0</v>
@@ -6787,30 +6730,30 @@
         <v>10.0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E32" s="2">
         <v>10.0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G32" s="1">
         <v>0.0</v>
@@ -6818,71 +6761,71 @@
       <c r="H32" s="1">
         <v>100.0</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>227</v>
+      <c r="J32" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>236</v>
+      <c r="J34" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2">
         <v>8.0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="G35" s="2">
         <v>1.0</v>
@@ -6891,13 +6834,44 @@
         <v>24.0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
@@ -7890,64 +7864,64 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="8">
         <v>150000.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>15.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="E2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2">
         <v>25000.0</v>
@@ -7959,15 +7933,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2">
         <v>800.0</v>
@@ -7978,13 +7952,13 @@
       <c r="D4" s="2">
         <v>1.0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>253</v>
+      <c r="F4" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2">
         <v>2.65</v>
@@ -7992,16 +7966,16 @@
       <c r="C5" s="2">
         <v>10.0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>256</v>
+      <c r="F5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B6" s="2">
         <v>0.17</v>
@@ -8010,15 +7984,15 @@
         <v>8.0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>236</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2">
         <v>4.5</v>
@@ -8027,45 +8001,45 @@
         <v>8.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="8">
         <v>1000.0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>25.0</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -8074,12 +8048,12 @@
         <v>10.0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -8088,45 +8062,45 @@
         <v>10.0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="8">
         <v>180.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>15.0</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B12" s="2">
         <v>70.0</v>
@@ -8135,15 +8109,15 @@
         <v>10.0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>274</v>
+        <v>251</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B13" s="2">
         <v>70.0</v>
@@ -8152,12 +8126,12 @@
         <v>10.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B14" s="2">
         <v>10.0</v>
@@ -8166,47 +8140,47 @@
         <v>10.0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="11">
         <v>60.0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>10.0</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B16" s="2">
         <v>4.0</v>
@@ -8215,15 +8189,15 @@
         <v>1.0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>262</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B17" s="2">
         <v>25.0</v>
@@ -8232,12 +8206,12 @@
         <v>5.0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B18" s="2">
         <v>75.0</v>
@@ -8246,15 +8220,15 @@
         <v>1.0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B19" s="2">
         <v>0.17</v>
@@ -8263,15 +8237,15 @@
         <v>5.0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2">
         <v>0.001</v>
@@ -8280,12 +8254,12 @@
         <v>1.0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B21" s="2">
         <v>35000.0</v>
@@ -8297,15 +8271,15 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B22" s="2">
         <v>14000.0</v>
@@ -8317,15 +8291,15 @@
         <v>1.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B23" s="2">
         <v>10000.0</v>
@@ -8337,15 +8311,15 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B24" s="2">
         <v>2000.0</v>
@@ -8357,15 +8331,15 @@
         <v>0.0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2">
         <v>25000.0</v>
@@ -8377,15 +8351,15 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2">
         <v>45000.0</v>
@@ -8397,15 +8371,15 @@
         <v>0.0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B27" s="2">
         <v>3000.0</v>
@@ -8417,12 +8391,12 @@
         <v>1.0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B28" s="2">
         <v>2000.0</v>
@@ -8434,12 +8408,12 @@
         <v>1.0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B29" s="2">
         <v>0.01</v>
@@ -8448,7 +8422,7 @@
         <v>1.0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -9462,139 +9436,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
@@ -9602,239 +9576,239 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="A15" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="A19" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D24" s="2">
         <v>0.0</v>
@@ -9842,209 +9816,209 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D25" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="A26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="11">
         <v>0.0</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
+      <c r="A30" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="2">
         <v>0.0</v>
@@ -10052,13 +10026,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2">
         <v>0.0</v>
@@ -10066,13 +10040,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2">
         <v>0.0</v>
@@ -10080,13 +10054,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2">
         <v>0.0</v>
@@ -10094,13 +10068,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" s="2">
         <v>0.0</v>
@@ -10108,13 +10082,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="2">
         <v>0.0</v>
@@ -10122,225 +10096,225 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="A43" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="11">
         <v>0.0</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>342</v>
+        <v>89</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="A49" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D54" s="2">
         <v>4.0</v>
@@ -10348,13 +10322,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D55" s="2">
         <v>0.0</v>
@@ -10362,53 +10336,53 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D56" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="A57" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="11">
         <v>0.0</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
     </row>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
@@ -11380,33 +11354,33 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>356</v>
+      <c r="G1" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2">
         <v>50.0</v>
@@ -11415,21 +11389,21 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>360</v>
+        <v>337</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C3" s="2">
         <v>100.0</v>
@@ -11438,21 +11412,21 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>360</v>
+        <v>341</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C4" s="2">
         <v>50.0</v>
@@ -11461,21 +11435,21 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>360</v>
+        <v>343</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C5" s="2">
         <v>200000.0</v>
@@ -11484,136 +11458,136 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>360</v>
+        <v>346</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100.0</v>
+        <v>336</v>
+      </c>
+      <c r="C6" s="4">
+        <v>75.0</v>
       </c>
       <c r="D6" s="2">
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>372</v>
+        <v>349</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="2">
-        <v>150.0</v>
+        <v>336</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100.0</v>
       </c>
       <c r="D7" s="2">
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>372</v>
+        <v>352</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="2">
-        <v>150.0</v>
+        <v>336</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100.0</v>
       </c>
       <c r="D8" s="2">
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>377</v>
+        <v>354</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="2">
-        <v>150.0</v>
+        <v>336</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100.0</v>
       </c>
       <c r="D9" s="2">
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>377</v>
+        <v>357</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="2">
-        <v>150.0</v>
+        <v>336</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100.0</v>
       </c>
       <c r="D10" s="2">
         <v>2.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>377</v>
+        <v>359</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -11622,21 +11596,21 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>377</v>
+        <v>361</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -11645,21 +11619,21 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>377</v>
+        <v>361</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -11668,21 +11642,21 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>377</v>
+        <v>361</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2">
         <v>4000.0</v>
@@ -11691,21 +11665,21 @@
         <v>3.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>91</v>
+        <v>365</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C15" s="2">
         <v>15000.0</v>
@@ -11714,21 +11688,21 @@
         <v>5.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>91</v>
+        <v>367</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -11737,21 +11711,21 @@
         <v>0.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>91</v>
+        <v>369</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -11760,21 +11734,21 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>91</v>
+        <v>371</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C18" s="2">
         <v>200.0</v>
@@ -11783,68 +11757,67 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1250.0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>Primary!E14</f>
-        <v>Fall</v>
+        <v>345</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3000.0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C20" s="2">
-        <v>10.0</v>
+        <v>378</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8.0</v>
       </c>
       <c r="D20" s="2">
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>401</v>
+        <v>379</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -11853,21 +11826,21 @@
         <v>0.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>401</v>
+        <v>379</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C22" s="2">
         <v>0.0</v>
@@ -11876,36 +11849,36 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>401</v>
+        <v>379</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.0</v>
+        <v>378</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8.0</v>
       </c>
       <c r="D23" s="2">
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>401</v>
+        <v>379</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -12913,749 +12886,748 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="D1" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="A6" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="A11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="11">
         <v>0.0</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="F16" s="11">
         <v>0.0</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="A19" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="F27" s="11">
         <v>0.0</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>Primary!E15</f>
-        <v>Y3</v>
+        <v>374</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F32" s="2">
         <v>0.0</v>
@@ -13663,19 +13635,19 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F33" s="2">
         <v>0.0</v>
@@ -13683,19 +13655,19 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F34" s="2">
         <v>0.0</v>
@@ -13703,19 +13675,19 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F35" s="2">
         <v>0.0</v>
@@ -14714,13 +14686,13 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -14728,7 +14700,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B2" s="2">
         <v>6.0</v>
@@ -14737,12 +14709,12 @@
         <v>21.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2">
         <v>4.0</v>
@@ -14751,7 +14723,7 @@
         <v>15.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
@@ -15777,27 +15749,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -15805,13 +15777,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2">
         <v>0.0</v>
@@ -15819,13 +15791,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D4" s="2">
         <v>0.0</v>
@@ -15833,13 +15805,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -15847,13 +15819,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>0.0</v>
@@ -15861,13 +15833,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>0.0</v>
@@ -15875,13 +15847,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -15889,13 +15861,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -15903,13 +15875,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -15917,13 +15889,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D11" s="2">
         <v>0.0</v>
@@ -15931,13 +15903,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2">
         <v>0.0</v>
@@ -15945,13 +15917,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2">
         <v>0.0</v>
@@ -15959,13 +15931,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2">
         <v>0.0</v>
@@ -15973,13 +15945,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2">
         <v>0.0</v>
@@ -16992,13 +16964,13 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -17006,44 +16978,44 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C2" s="2">
         <v>150.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2">
         <v>0.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C4" s="2">
         <v>200.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>

--- a/Components_V4.xlsx
+++ b/Components_V4.xlsx
@@ -20,7 +20,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="EGqrxQQvnk3r20YKcxWGTgmue3uox4y3DZ+5E5C8BjI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="y/S1SnPXTNcg9eMjx5/3dSRbRYu806YnBWOs6eotOsg="/>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +43,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhoob5v/lO2KgUeISmWyzqmIb7W7g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh4u1lH1ikHTQ/qWrb6yO9DHdSeLw=="/>
     </ext>
   </extLst>
 </comments>
@@ -66,7 +66,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhi3qBdWk7Lrm7KLSTNEaYdq6HSBA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhxVwVztZf2HTIud/WqJNXXipKb7w=="/>
     </ext>
   </extLst>
 </comments>
@@ -1554,7 +1554,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1911,7 +1910,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="26.14"/>
     <col customWidth="1" min="3" max="4" width="9.29"/>
     <col customWidth="1" min="5" max="5" width="25.0"/>
@@ -3510,7 +3508,6 @@
     <col customWidth="1" min="1" max="1" width="21.0"/>
     <col customWidth="1" min="2" max="2" width="7.0"/>
     <col customWidth="1" min="3" max="3" width="20.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4778,9 +4775,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="49.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7571,11 +7566,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="26.0"/>
     <col customWidth="1" min="3" max="3" width="11.57"/>
     <col customWidth="1" min="4" max="4" width="12.71"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
     <col customWidth="1" min="6" max="6" width="42.43"/>
     <col customWidth="1" min="7" max="7" width="9.29"/>
     <col customWidth="1" min="8" max="8" width="8.71"/>
@@ -11322,10 +11315,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
     <col customWidth="1" min="3" max="3" width="21.43"/>
     <col customWidth="1" min="4" max="4" width="22.71"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14772,11 +14763,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="32.29"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
     <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
     <col customWidth="1" min="5" max="5" width="30.29"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17636,9 +17624,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.43"/>
     <col customWidth="1" min="3" max="4" width="21.43"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
